--- a/Tp3.xlsx
+++ b/Tp3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominicprenovost/Programmation/TP2-PF-management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2EFB91-9768-CB4B-A31D-0A15DC66B2D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED58D56-1EF8-5A46-BA83-AB6686BA5E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -259,7 +259,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -316,7 +316,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -624,7 +624,7 @@
   <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Tp3.xlsx
+++ b/Tp3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominicprenovost/Programmation/TP2-PF-management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED58D56-1EF8-5A46-BA83-AB6686BA5E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE9AB00-BF87-8B4D-9E9F-B24EB5FA9D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
-    <t>Period End Date</t>
+    <t xml:space="preserve">	Period End Date, as Reported</t>
   </si>
   <si>
     <t>Weighted_Return</t>
@@ -259,7 +259,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -316,7 +316,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -624,12 +624,12 @@
   <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -646,7 +646,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.16812159312244601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -654,7 +654,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>-0.18896848978507039</v>
+        <v>-2.1389938307773589E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -662,7 +662,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.29743327305893708</v>
+        <v>-0.20479421758889771</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -670,7 +670,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.32959321467757041</v>
+        <v>7.9063660913244252E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -678,7 +678,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>-0.19242947685754591</v>
+        <v>-0.19800775240856561</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -686,7 +686,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.12908780597678371</v>
+        <v>-0.15852368070932391</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -694,7 +694,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>5.4286354113792408E-2</v>
+        <v>0.1159984613894406</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -702,7 +702,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.19157124775745771</v>
+        <v>5.0629846959606137E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -710,7 +710,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.40013165076665502</v>
+        <v>-0.49613989947352982</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -718,7 +718,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>-0.14323446468022541</v>
+        <v>-0.2438085235907593</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -726,7 +726,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>-4.3782036236030601E-2</v>
+        <v>-0.2066476411561203</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -734,7 +734,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>-0.32805136195695878</v>
+        <v>0.52117160794046025</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -742,7 +742,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.55357253225542447</v>
+        <v>-0.82004845607037735</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -750,7 +750,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>-7.6127350730808244E-2</v>
+        <v>6.2413778271255549E-3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -758,7 +758,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>-5.9270769190723438E-2</v>
+        <v>0.20374979900761789</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -766,7 +766,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>-0.45113183006325919</v>
+        <v>0.72945929720311742</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -774,7 +774,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>-0.19234223553298949</v>
+        <v>-0.33395986376793302</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -782,7 +782,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.60811864188112641</v>
+        <v>-0.1143549061046448</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -790,7 +790,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>-0.20128923866715431</v>
+        <v>-0.18627754520169451</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -798,7 +798,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>3.7273257500053412E-2</v>
+        <v>-0.13753222239192769</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -806,7 +806,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.146996276252882</v>
+        <v>-0.12390082906555371</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -814,7 +814,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>4.2944269572099708E-2</v>
+        <v>0.52221048604382525</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -822,7 +822,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>8.5708672227554437E-3</v>
+        <v>-2.491799682240296E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -830,7 +830,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>-9.03649812389202E-2</v>
+        <v>0.1662308293169823</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -838,7 +838,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.140653742619339</v>
+        <v>-9.0725394118816388E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -846,7 +846,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>-4.1836741000509332E-2</v>
+        <v>7.3321983282442105E-2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -854,7 +854,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>-7.5315517508058538E-2</v>
+        <v>0.44048030088462448</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -862,7 +862,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>-4.2044052906511302E-2</v>
+        <v>-0.2144521988189125</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -870,7 +870,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>-0.32325946818832968</v>
+        <v>0.57786594701513283</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -878,7 +878,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>-0.40271757375065992</v>
+        <v>0.28936305658262629</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -886,7 +886,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>-0.66594533846255111</v>
+        <v>1.3936890324634359</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -894,7 +894,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>6.6963764458700198E-2</v>
+        <v>0.92792810852267849</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -902,7 +902,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>9.4426852977062214E-2</v>
+        <v>1.5847252972812651E-3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -910,7 +910,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>-4.1132722175163283E-2</v>
+        <v>0.36520869114385029</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -918,7 +918,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>5.9162488305374107E-2</v>
+        <v>0.30275185723947518</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -926,7 +926,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>-0.1225488373304367</v>
+        <v>0.1218927447529259</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -934,7 +934,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>4.172634379858399E-2</v>
+        <v>0.1263465746453705</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -942,7 +942,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>-0.17169008634058761</v>
+        <v>0.65986280877024073</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -950,7 +950,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0.13853283299793251</v>
+        <v>0.1134345669814148</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -958,7 +958,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>-0.12758012981920619</v>
+        <v>0.46003170711550517</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -966,7 +966,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>-0.23295979423768429</v>
+        <v>0.23836358136803051</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -974,7 +974,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.13692480666677859</v>
+        <v>0.76600957729142571</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -982,7 +982,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>3.920915750202178E-2</v>
+        <v>1.6259356083896639E-2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -990,7 +990,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.15846351326343919</v>
+        <v>0.30216361111929702</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -998,7 +998,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.18035226154541781</v>
+        <v>0.15929295518995101</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1006,7 +1006,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.24966572236605269</v>
+        <v>0.69879248044854725</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1014,7 +1014,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>1.204583403531267</v>
+        <v>-9.6029989160316451E-2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1022,7 +1022,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>2.7883560627931611E-2</v>
+        <v>1.190642265620047</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1030,7 +1030,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0.2453247813797684</v>
+        <v>0.16000489741942781</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1038,7 +1038,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.17668907220651819</v>
+        <v>2.4831080334478381E-2</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1046,7 +1046,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0.61753896428734589</v>
+        <v>0.63253970882579036</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1054,7 +1054,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>-0.14234041262831121</v>
+        <v>0.84599923897264884</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1062,7 +1062,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0.25035857456217581</v>
+        <v>0.1906836990366173</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1070,7 +1070,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.37204960962083622</v>
+        <v>0.395349210675148</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1078,7 +1078,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>-0.20527262835117341</v>
+        <v>0.61154542708928683</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1086,7 +1086,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>7.8011536577070231E-2</v>
+        <v>0.62610414892734145</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1094,7 +1094,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0.33170977114086908</v>
+        <v>0.25524783622429648</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1102,7 +1102,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>-0.1108565630144444</v>
+        <v>0.46907258961095621</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1110,7 +1110,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>-6.3510955627189614E-2</v>
+        <v>0.67986869827746388</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1118,7 +1118,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.16476822515125661</v>
+        <v>0.26001571724232098</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1126,7 +1126,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>-0.33516433783401117</v>
+        <v>0.56649815044051544</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -1134,7 +1134,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>-5.0419519032032019E-2</v>
+        <v>0.35434388417420959</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -1142,7 +1142,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>-0.35454394735073291</v>
+        <v>0.1582967692624245</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1150,7 +1150,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>-2.374510808181193E-2</v>
+        <v>0.2270878362693691</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1158,7 +1158,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>2.9213588128240069</v>
+        <v>1.3737128008859709</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -1166,7 +1166,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>-0.2491468735742588</v>
+        <v>-0.72833515252055359</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -1174,7 +1174,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>-9.9398048754699667E-2</v>
+        <v>0.53274586269244761</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -1182,7 +1182,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>0.39062048805207439</v>
+        <v>0.29076853894757082</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -1190,7 +1190,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>0.18002619091099739</v>
+        <v>0.33384213095903392</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -1198,7 +1198,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>0.24271862412437059</v>
+        <v>0.47712096296021461</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -1206,7 +1206,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>0.20690324368499369</v>
       </c>
     </row>
   </sheetData>

--- a/Tp3.xlsx
+++ b/Tp3.xlsx
@@ -1,55 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominicprenovost/Programmation/TP2-PF-management/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9347665C-61C9-1E4F-9D37-35D56271E1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t xml:space="preserve">	Period End Date, as Reported</t>
-  </si>
-  <si>
-    <t>GT</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -64,46 +49,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -391,73 +426,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B2">
-        <v>-0.76244807603221898</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2019</v>
-      </c>
-      <c r="B3">
-        <v>-0.11310003002586561</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>2020</v>
-      </c>
-      <c r="B4">
-        <v>4.1889088542467441</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>2021</v>
-      </c>
-      <c r="B5">
-        <v>4.6351694954734093</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B6">
-        <v>5.1512622526357763</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B7">
-        <v>3.7929850277561972</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">	Period End Date, as Reported</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Weighted_Return</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>43101</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.007261410247925895</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>43466</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.0009504204203854253</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>43831</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.03611128322626504</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44197</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.03928109741926618</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44562</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.04402788250116048</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.0351202317384833</v>
       </c>
     </row>
   </sheetData>
